--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:00:01+00:00</t>
+    <t>2021-11-26T15:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T15:49:28+00:00</t>
+    <t>2021-12-02T15:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:33:35+00:00</t>
+    <t>2021-12-02T15:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-countryCodes</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: ?ngen-9? (OFFICIAL)</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T15:37:14+00:00</t>
+    <t>2021-12-07T06:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -233,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,29 +301,29 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -331,20 +337,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -366,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Property</t>
   </si>
@@ -27,12 +27,6 @@
     <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-countryCodes</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>id: ?ngen-9? (OFFICIAL)</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -63,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T06:08:43+00:00</t>
+    <t>2021-12-07T14:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -239,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,29 +295,29 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -337,28 +331,20 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -380,28 +366,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-07T14:13:42+00:00</t>
+    <t>2021-12-16T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:25:08+00:00</t>
+    <t>2021-12-16T13:27:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:27:06+00:00</t>
+    <t>2021-12-16T13:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:40:06+00:00</t>
+    <t>2021-12-16T13:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:42:07+00:00</t>
+    <t>2021-12-16T13:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:44:47+00:00</t>
+    <t>2021-12-16T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:46:43+00:00</t>
+    <t>2021-12-16T13:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:52:34+00:00</t>
+    <t>2021-12-16T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T13:56:13+00:00</t>
+    <t>2021-12-16T14:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:00:07+00:00</t>
+    <t>2021-12-16T14:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:06:02+00:00</t>
+    <t>2021-12-16T14:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:10:18+00:00</t>
+    <t>2021-12-16T14:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:12:05+00:00</t>
+    <t>2021-12-16T14:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:13:37+00:00</t>
+    <t>2021-12-16T14:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:16:27+00:00</t>
+    <t>2021-12-16T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-countryCodes</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.40.0.34.10.172 (OFFICIAL)</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:22:32+00:00</t>
+    <t>2021-12-16T14:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -233,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -295,29 +301,29 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -331,20 +337,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -366,28 +380,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:50:40+00:00</t>
+    <t>2021-12-16T17:43:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:43:51+00:00</t>
+    <t>2021-12-16T18:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:14:01+00:00</t>
+    <t>2021-12-16T18:18:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T18:18:02+00:00</t>
+    <t>2022-01-27T17:29:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:29:14+00:00</t>
+    <t>2022-04-12T14:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T14:20:55+00:00</t>
+    <t>2022-04-12T15:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.40.0.34.10.172 (OFFICIAL)</t>
+    <t>id: urn:oid:1.2.40.0.34.10.172(use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T15:07:33+00:00</t>
+    <t>2022-11-16T17:52:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.40.0.34.10.172(use: OFFICIAL)</t>
+    <t>id: urn:oid:1.2.40.0.34.10.172 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T17:52:05+00:00</t>
+    <t>2023-01-20T07:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T07:23:49+00:00</t>
+    <t>2023-02-16T15:18:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-main/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:18:08+00:00</t>
+    <t>2023-03-06T16:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
